--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T21:00:04-05:00</t>
+    <t>2021-12-08T12:48:12-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T12:48:12-05:00</t>
+    <t>2021-12-08T13:27:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>todo</t>
+    <t>Categories for SPLASCH observations</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -147,7 +147,7 @@
     <t>Spoken language comprehension</t>
   </si>
   <si>
-    <t>todo definition</t>
+    <t>Category code for spoken language comprehension observation</t>
   </si>
   <si>
     <t>spoken-language-expression</t>
@@ -156,10 +156,16 @@
     <t>Spoken language expression</t>
   </si>
   <si>
+    <t>Category code for spoken language expression observation</t>
+  </si>
+  <si>
     <t>swallowing</t>
   </si>
   <si>
     <t>Swallowing</t>
+  </si>
+  <si>
+    <t>Category code for swallowing observation</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -533,13 +539,13 @@
         <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T13:27:26-05:00</t>
+    <t>2021-12-08T13:43:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T13:43:45-05:00</t>
+    <t>2021-12-09T02:52:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T02:52:24-05:00</t>
+    <t>2021-12-10T12:07:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T12:07:05-05:00</t>
+    <t>2021-12-10T13:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T13:11:15-05:00</t>
+    <t>2021-12-15T22:58:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T22:58:34-05:00</t>
+    <t>2021-12-16T13:39:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:39:40-05:00</t>
+    <t>2021-12-20T13:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T13:33:32-05:00</t>
+    <t>2021-12-20T13:52:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T13:52:46-05:00</t>
+    <t>2021-12-23T13:33:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-23T13:33:36-05:00</t>
+    <t>2021-12-28T14:33:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-28T14:33:13-05:00</t>
+    <t>2021-12-29T13:00:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-29T13:00:19-05:00</t>
+    <t>2022-03-14T15:55:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>Level</t>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>Category code for swallowing observation</t>
+  </si>
+  <si>
+    <t>multi-modal-communication</t>
+  </si>
+  <si>
+    <t>Multi-modal communication</t>
+  </si>
+  <si>
+    <t>Category code for multi-modal communication observation</t>
+  </si>
+  <si>
+    <t>hearing</t>
+  </si>
+  <si>
+    <t>Hearing</t>
+  </si>
+  <si>
+    <t>Category code for hearing observation</t>
   </si>
 </sst>
 </file>
@@ -486,7 +504,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -548,6 +566,34 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T15:55:03-04:00</t>
+    <t>2022-03-24T15:01:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T15:01:17-04:00</t>
+    <t>2022-03-24T23:37:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T23:37:25-04:00</t>
+    <t>2022-03-26T00:24:52-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T00:24:52-04:00</t>
+    <t>2022-03-28T21:41:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T21:41:27-04:00</t>
+    <t>2022-03-29T12:50:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:50:12-04:00</t>
+    <t>2022-03-29T14:17:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T14:17:18-04:00</t>
+    <t>2022-04-05T11:13:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T11:13:11-04:00</t>
+    <t>2022-04-05T12:11:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T12:11:10-04:00</t>
+    <t>2022-04-15T08:42:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T08:42:50-04:00</t>
+    <t>2022-04-15T09:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T09:25:37-04:00</t>
+    <t>2022-04-15T12:12:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T12:12:07-04:00</t>
+    <t>2022-04-18T11:35:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T11:35:28-04:00</t>
+    <t>2022-04-18T14:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:57:29-04:00</t>
+    <t>2022-04-27T11:54:23-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T11:54:23-04:00</t>
+    <t>2022-04-29T14:30:00-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T14:30:00-04:00</t>
+    <t>2022-05-03T12:45:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T12:45:05-04:00</t>
+    <t>2022-05-03T15:05:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:05:17-04:00</t>
+    <t>2022-05-04T09:54:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SPLASCHObservationCategoryCS.xlsx
+++ b/CodeSystem-SPLASCHObservationCategoryCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T09:54:10-04:00</t>
+    <t>2022-05-04T12:01:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
